--- a/DATA_goal/Junction_Flooding_436.xlsx
+++ b/DATA_goal/Junction_Flooding_436.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.71527777778</v>
+        <v>45117.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.72222222222</v>
+        <v>45117.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>10.089</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>6.855</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>21.783</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>17.092</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>31.966</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>12.216</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>5.154</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>7.449</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>8.695</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>2.538</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>11.031</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.477</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.898</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>112.859</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>22.174</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>14.481</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>7.445</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.702</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>15.414</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>6.437</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>5.928</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>6.943</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>9.016</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>29.412</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.72916666666</v>
+        <v>45117.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.804</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>0.997</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>0.763</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>8.577</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>1.163</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>0.452</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>0.238</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>0.802</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.737</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.277</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>1.079</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.968</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.907</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>4.257</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>2.579</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.694</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>1.568</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>0.646</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>0.541</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>0.613</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>0.841</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>8.382999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.73611111111</v>
+        <v>45117.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>8.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>49.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0</v>
+        <v>10.35</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0</v>
+        <v>6.66</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0</v>
+        <v>12.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.53</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_436.xlsx
+++ b/DATA_goal/Junction_Flooding_436.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45117.50694444445</v>
+        <v>44781.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.295</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.407</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.988</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.822</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.934</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.611</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.104</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.942</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.632</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.848</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.482</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.027</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.344</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.535</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.799</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.717</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.386</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.226</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.649</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.584</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.493</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.537</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.435</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.148</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.511</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.035</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.064</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.833</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.025</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.317</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.614</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.758</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45117.51388888889</v>
+        <v>44781.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.089</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.855</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.783</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.092</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.94</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.966</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.216</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.154</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.449</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.695</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.026999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.538</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.895</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.031</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.477</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.898</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.859</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.174</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.288</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.481</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.445</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.702</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.414</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.437</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.928</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.943</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.016</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.412</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45117.52083333334</v>
+        <v>44781.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.961</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.253</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.804</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.997</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.763</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.577</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.163</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.452</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.802</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.737</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.277</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.079</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.968</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.907</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.257</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.694</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.568</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.646</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.613</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.753</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.841</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.382999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45117.52777777778</v>
+        <v>44781.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.08</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.34</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.16</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" s="4" t="n">
         <v>3.39</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>4.34</v>
+      <c r="R6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.53</v>
       </c>
     </row>
   </sheetData>
